--- a/biology/Zoologie/Gerboise_de_Bobrinski/Gerboise_de_Bobrinski.xlsx
+++ b/biology/Zoologie/Gerboise_de_Bobrinski/Gerboise_de_Bobrinski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allactodipus bobrinskii
-La Gerboise de Bobrinski[2] (Allactodipus bobrinskii) est une espèce de mammifères rongeurs de la sous-famille des Allactaginae. C'est le seul représentant du genre Allactodipus. 
+La Gerboise de Bobrinski (Allactodipus bobrinskii) est une espèce de mammifères rongeurs de la sous-famille des Allactaginae. C'est le seul représentant du genre Allactodipus. 
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cette gerboise au Turkménistan et en Ouzbékistan. Elle vit dans les déserts aux sols argileux et évite les déserts de sable[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette gerboise au Turkménistan et en Ouzbékistan. Elle vit dans les déserts aux sols argileux et évite les déserts de sable.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle se nourrit des parties vertes des plantes, mangeant rarement les graines. Elle se nourrit également d'insectes, particulièrement au printemps[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se nourrit des parties vertes des plantes, mangeant rarement les graines. Elle se nourrit également d'insectes, particulièrement au printemps.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kolesnikov, 1937 : « A new genus and species of Jerboa, Allactodipus bobrinskii (Rodentia, Dipodidae) from the Kzyl-Kumy desert, Middle Asia », Bulletin de l'Université de l'Asie Centrale, vol. 22, p. 255-261.</t>
         </is>
